--- a/data/Output/九州乃山賊小倉総本店/店舗情報まとめ.xlsx
+++ b/data/Output/九州乃山賊小倉総本店/店舗情報まとめ.xlsx
@@ -1635,7 +1635,7 @@
         <v>2321.079881656805</v>
       </c>
       <c r="H2" t="n">
-        <v>392262.5</v>
+        <v>1160.539940828402</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1661,7 +1661,7 @@
         <v>3244.663551401869</v>
       </c>
       <c r="H3" t="n">
-        <v>231452.6666666667</v>
+        <v>1081.554517133956</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1687,7 +1687,7 @@
         <v>2214.942675159235</v>
       </c>
       <c r="H4" t="n">
-        <v>173873</v>
+        <v>1107.471337579618</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1713,7 +1713,7 @@
         <v>2104.753731343284</v>
       </c>
       <c r="H5" t="n">
-        <v>141018.5</v>
+        <v>1052.376865671642</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1739,7 +1739,7 @@
         <v>4311.818181818182</v>
       </c>
       <c r="H6" t="n">
-        <v>130432.5</v>
+        <v>1077.954545454545</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1791,7 +1791,7 @@
         <v>2688.56</v>
       </c>
       <c r="H8" t="n">
-        <v>44809.33333333334</v>
+        <v>896.1866666666666</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1817,7 +1817,7 @@
         <v>4923.354166666667</v>
       </c>
       <c r="H9" t="n">
-        <v>47264.2</v>
+        <v>984.6708333333333</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1843,7 +1843,7 @@
         <v>6050.386363636364</v>
       </c>
       <c r="H10" t="n">
-        <v>44369.5</v>
+        <v>1008.397727272727</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1869,7 +1869,7 @@
         <v>2396.564102564103</v>
       </c>
       <c r="H11" t="n">
-        <v>31155.33333333333</v>
+        <v>798.8547008547008</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1895,7 +1895,7 @@
         <v>5141.107142857143</v>
       </c>
       <c r="H12" t="n">
-        <v>35987.75</v>
+        <v>1285.276785714286</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1921,7 +1921,7 @@
         <v>5841.272727272727</v>
       </c>
       <c r="H13" t="n">
-        <v>42836</v>
+        <v>1947.090909090909</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1947,7 +1947,7 @@
         <v>4568.75</v>
       </c>
       <c r="H14" t="n">
-        <v>22843.75</v>
+        <v>1142.1875</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1973,7 +1973,7 @@
         <v>4558.166666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>10255.875</v>
+        <v>569.7708333333334</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1999,7 +1999,7 @@
         <v>4733.875</v>
       </c>
       <c r="H16" t="n">
-        <v>10820.28571428571</v>
+        <v>676.2678571428571</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2025,7 +2025,7 @@
         <v>3540.25</v>
       </c>
       <c r="H17" t="n">
-        <v>10620.75</v>
+        <v>885.0625</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2051,7 +2051,7 @@
         <v>23333.33333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>3500</v>
+        <v>388.8888888888889</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2077,7 +2077,7 @@
         <v>14178.44444444445</v>
       </c>
       <c r="H19" t="n">
-        <v>11600.54545454545</v>
+        <v>1288.949494949495</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2103,7 +2103,7 @@
         <v>1155.555555555556</v>
       </c>
       <c r="H20" t="n">
-        <v>10400</v>
+        <v>1155.555555555556</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2129,7 +2129,7 @@
         <v>15698.25</v>
       </c>
       <c r="H21" t="n">
-        <v>12558.6</v>
+        <v>1569.825</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2155,7 +2155,7 @@
         <v>5805.857142857143</v>
       </c>
       <c r="H22" t="n">
-        <v>10160.25</v>
+        <v>1451.464285714286</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2181,7 +2181,7 @@
         <v>7324.142857142857</v>
       </c>
       <c r="H23" t="n">
-        <v>10253.8</v>
+        <v>1464.828571428571</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2207,7 +2207,7 @@
         <v>4564.142857142857</v>
       </c>
       <c r="H24" t="n">
-        <v>6389.8</v>
+        <v>912.8285714285714</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2233,7 +2233,7 @@
         <v>1742.714285714286</v>
       </c>
       <c r="H25" t="n">
-        <v>2033.166666666667</v>
+        <v>290.452380952381</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2259,7 +2259,7 @@
         <v>7033.285714285715</v>
       </c>
       <c r="H26" t="n">
-        <v>4102.75</v>
+        <v>586.1071428571429</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2285,7 +2285,7 @@
         <v>7825</v>
       </c>
       <c r="H27" t="n">
-        <v>9390</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2311,7 +2311,7 @@
         <v>24.5</v>
       </c>
       <c r="H28" t="n">
-        <v>7.35</v>
+        <v>1.225</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2337,7 +2337,7 @@
         <v>20977.16666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>13984.77777777778</v>
+        <v>2330.796296296297</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2363,7 +2363,7 @@
         <v>5464.666666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>6557.6</v>
+        <v>1092.933333333333</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2389,7 +2389,7 @@
         <v>30000</v>
       </c>
       <c r="H31" t="n">
-        <v>5000</v>
+        <v>833.3333333333334</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2415,7 +2415,7 @@
         <v>25663.33333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>5309.655172413793</v>
+        <v>884.9425287356321</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2441,7 +2441,7 @@
         <v>4600</v>
       </c>
       <c r="H33" t="n">
-        <v>3450</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2467,7 +2467,7 @@
         <v>10000</v>
       </c>
       <c r="H34" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2493,7 +2493,7 @@
         <v>21875</v>
       </c>
       <c r="H35" t="n">
-        <v>3500</v>
+        <v>875</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2519,7 +2519,7 @@
         <v>72.5</v>
       </c>
       <c r="H36" t="n">
-        <v>12.60869565217391</v>
+        <v>3.152173913043478</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2545,7 +2545,7 @@
         <v>6729.25</v>
       </c>
       <c r="H37" t="n">
-        <v>3845.285714285714</v>
+        <v>961.3214285714286</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2571,7 +2571,7 @@
         <v>20.75</v>
       </c>
       <c r="H38" t="n">
-        <v>5.1875</v>
+        <v>1.296875</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2597,7 +2597,7 @@
         <v>34</v>
       </c>
       <c r="H39" t="n">
-        <v>14.57142857142857</v>
+        <v>4.857142857142857</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2623,7 +2623,7 @@
         <v>6699</v>
       </c>
       <c r="H40" t="n">
-        <v>2871</v>
+        <v>957</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2675,7 +2675,7 @@
         <v>9876.666666666666</v>
       </c>
       <c r="H42" t="n">
-        <v>3703.75</v>
+        <v>1234.583333333333</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2701,7 +2701,7 @@
         <v>8000</v>
       </c>
       <c r="H43" t="n">
-        <v>4000</v>
+        <v>1333.333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2727,7 +2727,7 @@
         <v>36.33333333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>6.055555555555555</v>
+        <v>2.018518518518519</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2753,7 +2753,7 @@
         <v>-10.33333333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>15.5</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2779,7 +2779,7 @@
         <v>17575</v>
       </c>
       <c r="H46" t="n">
-        <v>2510.714285714286</v>
+        <v>836.9047619047619</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2805,7 +2805,7 @@
         <v>-3833.333333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>3833.333333333333</v>
+        <v>1277.777777777778</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2831,7 +2831,7 @@
         <v>33.66666666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>7.769230769230769</v>
+        <v>2.589743589743589</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2857,7 +2857,7 @@
         <v>6019.5</v>
       </c>
       <c r="H49" t="n">
-        <v>2006.5</v>
+        <v>1003.25</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2883,7 +2883,7 @@
         <v>37</v>
       </c>
       <c r="H50" t="n">
-        <v>6.166666666666667</v>
+        <v>3.083333333333333</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2909,7 +2909,7 @@
         <v>104500</v>
       </c>
       <c r="H51" t="n">
-        <v>3483.333333333333</v>
+        <v>1741.666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2935,7 +2935,7 @@
         <v>13940</v>
       </c>
       <c r="H52" t="n">
-        <v>1858.666666666667</v>
+        <v>929.3333333333334</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2961,7 +2961,7 @@
         <v>11438</v>
       </c>
       <c r="H53" t="n">
-        <v>3268</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2987,7 +2987,7 @@
         <v>25705</v>
       </c>
       <c r="H54" t="n">
-        <v>4673.636363636364</v>
+        <v>2336.818181818182</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3013,7 +3013,7 @@
         <v>46.5</v>
       </c>
       <c r="H55" t="n">
-        <v>5.8125</v>
+        <v>2.90625</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3065,7 +3065,7 @@
         <v>31.5</v>
       </c>
       <c r="H57" t="n">
-        <v>4.846153846153846</v>
+        <v>2.423076923076923</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3091,7 +3091,7 @@
         <v>93</v>
       </c>
       <c r="H58" t="n">
-        <v>6.642857142857143</v>
+        <v>3.321428571428572</v>
       </c>
     </row>
     <row r="59" spans="1:8">
